--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,15 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Ephb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +531,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H2">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I2">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J2">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.013267</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N2">
-        <v>0.039801</v>
+        <v>0.110783</v>
       </c>
       <c r="O2">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P2">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q2">
-        <v>0.0008378818073333332</v>
+        <v>0.00799104859288889</v>
       </c>
       <c r="R2">
-        <v>0.007540936265999999</v>
+        <v>0.07191943733600001</v>
       </c>
       <c r="S2">
-        <v>0.0001810173570130638</v>
+        <v>0.00162996516229404</v>
       </c>
       <c r="T2">
-        <v>0.0001810173570130638</v>
+        <v>0.001629965162294039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H3">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I3">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J3">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>17.37879</v>
       </c>
       <c r="O3">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P3">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q3">
-        <v>0.3658544251266666</v>
+        <v>1.253574604186666</v>
       </c>
       <c r="R3">
-        <v>3.29268982614</v>
+        <v>11.28217143768</v>
       </c>
       <c r="S3">
-        <v>0.07903978879638859</v>
+        <v>0.2556964720473721</v>
       </c>
       <c r="T3">
-        <v>0.07903978879638862</v>
+        <v>0.2556964720473721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H4">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I4">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J4">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5062776666666666</v>
+        <v>0.006821</v>
       </c>
       <c r="N4">
-        <v>1.518833</v>
+        <v>0.020463</v>
       </c>
       <c r="O4">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P4">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q4">
-        <v>0.03197413479755555</v>
+        <v>0.001476046210666667</v>
       </c>
       <c r="R4">
-        <v>0.287767213178</v>
+        <v>0.013284415896</v>
       </c>
       <c r="S4">
-        <v>0.006907744413563043</v>
+        <v>0.0003010748681297936</v>
       </c>
       <c r="T4">
-        <v>0.006907744413563045</v>
+        <v>0.0003010748681297936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,51 +726,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H5">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I5">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J5">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05870933333333334</v>
+        <v>0.208416</v>
       </c>
       <c r="N5">
-        <v>0.176128</v>
+        <v>0.625248</v>
       </c>
       <c r="O5">
-        <v>0.009214823074225033</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P5">
-        <v>0.009214823074225033</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q5">
-        <v>0.003707807516444444</v>
+        <v>0.045100666624</v>
       </c>
       <c r="R5">
-        <v>0.033370267648</v>
+        <v>0.405905999616</v>
       </c>
       <c r="S5">
-        <v>0.0008010408044018216</v>
+        <v>0.009199357823799893</v>
       </c>
       <c r="T5">
-        <v>0.0008010408044018218</v>
+        <v>0.009199357823799891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -782,55 +779,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2163973333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.649192</v>
+      </c>
+      <c r="I6">
+        <v>0.2690509661419307</v>
+      </c>
+      <c r="J6">
+        <v>0.2690509661419307</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.5618379999999999</v>
-      </c>
-      <c r="H6">
-        <v>1.685514</v>
-      </c>
-      <c r="I6">
-        <v>0.7733368692573732</v>
-      </c>
-      <c r="J6">
-        <v>0.7733368692573734</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.013267</v>
+        <v>0.050388</v>
       </c>
       <c r="N6">
-        <v>0.039801</v>
+        <v>0.151164</v>
       </c>
       <c r="O6">
-        <v>0.00208234450613889</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P6">
-        <v>0.00208234450613889</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q6">
-        <v>0.007453904745999999</v>
+        <v>0.010903828832</v>
       </c>
       <c r="R6">
-        <v>0.067085142714</v>
+        <v>0.09813445948799999</v>
       </c>
       <c r="S6">
-        <v>0.00161035378109274</v>
+        <v>0.002224096240334855</v>
       </c>
       <c r="T6">
-        <v>0.001610353781092741</v>
+        <v>0.002224096240334854</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +841,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H7">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I7">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J7">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>5.792929999999999</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N7">
-        <v>17.37879</v>
+        <v>0.110783</v>
       </c>
       <c r="O7">
-        <v>0.9092391618261221</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P7">
-        <v>0.9092391618261221</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q7">
-        <v>3.254688205339999</v>
+        <v>0.002332179097555555</v>
       </c>
       <c r="R7">
-        <v>29.29219384806</v>
+        <v>0.020989611878</v>
       </c>
       <c r="S7">
-        <v>0.7031481668128113</v>
+        <v>0.000475703612242915</v>
       </c>
       <c r="T7">
-        <v>0.7031481668128116</v>
+        <v>0.0004757036122429149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +903,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H8">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I8">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J8">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5062776666666666</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N8">
-        <v>1.518833</v>
+        <v>17.37879</v>
       </c>
       <c r="O8">
-        <v>0.07946367059351396</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P8">
-        <v>0.07946367059351396</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q8">
-        <v>0.2844460316846666</v>
+        <v>0.3658544251266666</v>
       </c>
       <c r="R8">
-        <v>2.560014285162</v>
+        <v>3.29268982614</v>
       </c>
       <c r="S8">
-        <v>0.06145218623648728</v>
+        <v>0.07462474548812585</v>
       </c>
       <c r="T8">
-        <v>0.06145218623648729</v>
+        <v>0.07462474548812585</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,70 +965,70 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H9">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I9">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J9">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05870933333333334</v>
+        <v>0.006821</v>
       </c>
       <c r="N9">
-        <v>0.176128</v>
+        <v>0.020463</v>
       </c>
       <c r="O9">
-        <v>0.009214823074225033</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P9">
-        <v>0.009214823074225033</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q9">
-        <v>0.03298513442133333</v>
+        <v>0.0004307825286666666</v>
       </c>
       <c r="R9">
-        <v>0.296866209792</v>
+        <v>0.003877042758</v>
       </c>
       <c r="S9">
-        <v>0.00712616242698179</v>
+        <v>8.78683824894322E-05</v>
       </c>
       <c r="T9">
-        <v>0.007126162426981792</v>
+        <v>8.78683824894322E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
@@ -1039,51 +1036,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.073382</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H10">
-        <v>0.220146</v>
+        <v>0.189466</v>
       </c>
       <c r="I10">
-        <v>0.1010059948594516</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J10">
-        <v>0.1010059948594516</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.013267</v>
+        <v>0.208416</v>
       </c>
       <c r="N10">
-        <v>0.039801</v>
+        <v>0.625248</v>
       </c>
       <c r="O10">
-        <v>0.00208234450613889</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P10">
-        <v>0.00208234450613889</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q10">
-        <v>0.000973558994</v>
+        <v>0.013162581952</v>
       </c>
       <c r="R10">
-        <v>0.008762030945999999</v>
+        <v>0.118463237568</v>
       </c>
       <c r="S10">
-        <v>0.000210329278482672</v>
+        <v>0.002684822871267777</v>
       </c>
       <c r="T10">
-        <v>0.0002103292784826721</v>
+        <v>0.002684822871267776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1092,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.073382</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H11">
-        <v>0.220146</v>
+        <v>0.189466</v>
       </c>
       <c r="I11">
-        <v>0.1010059948594516</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J11">
-        <v>0.1010059948594516</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.792929999999999</v>
+        <v>0.050388</v>
       </c>
       <c r="N11">
-        <v>17.37879</v>
+        <v>0.151164</v>
       </c>
       <c r="O11">
-        <v>0.9092391618261221</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P11">
-        <v>0.9092391618261221</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q11">
-        <v>0.4250967892599999</v>
+        <v>0.003182270935999999</v>
       </c>
       <c r="R11">
-        <v>3.82587110334</v>
+        <v>0.028640438424</v>
       </c>
       <c r="S11">
-        <v>0.09183860610542137</v>
+        <v>0.0006491001402840507</v>
       </c>
       <c r="T11">
-        <v>0.09183860610542138</v>
+        <v>0.0006491001402840507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1151,55 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H12">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I12">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J12">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5062776666666666</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N12">
-        <v>1.518833</v>
+        <v>0.110783</v>
       </c>
       <c r="O12">
-        <v>0.07946367059351396</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P12">
-        <v>0.07946367059351396</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q12">
-        <v>0.03715166773533333</v>
+        <v>0.01634613012377778</v>
       </c>
       <c r="R12">
-        <v>0.334365009618</v>
+        <v>0.147115171114</v>
       </c>
       <c r="S12">
-        <v>0.008026307103481628</v>
+        <v>0.003334183534285185</v>
       </c>
       <c r="T12">
-        <v>0.008026307103481628</v>
+        <v>0.003334183534285185</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1213,60 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H13">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I13">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J13">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05870933333333334</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N13">
-        <v>0.176128</v>
+        <v>17.37879</v>
       </c>
       <c r="O13">
-        <v>0.009214823074225033</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P13">
-        <v>0.009214823074225033</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q13">
-        <v>0.004308208298666667</v>
+        <v>2.564255912313333</v>
       </c>
       <c r="R13">
-        <v>0.038773874688</v>
+        <v>23.07830321082</v>
       </c>
       <c r="S13">
-        <v>0.0009307523720659297</v>
+        <v>0.5230412198965547</v>
       </c>
       <c r="T13">
-        <v>0.0009307523720659299</v>
+        <v>0.5230412198965547</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1278,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.028136</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H14">
-        <v>0.08440800000000001</v>
+        <v>1.327958</v>
       </c>
       <c r="I14">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J14">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.013267</v>
+        <v>0.006821</v>
       </c>
       <c r="N14">
-        <v>0.039801</v>
+        <v>0.020463</v>
       </c>
       <c r="O14">
-        <v>0.00208234450613889</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P14">
-        <v>0.00208234450613889</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q14">
-        <v>0.000373280312</v>
+        <v>0.003019333839333333</v>
       </c>
       <c r="R14">
-        <v>0.003359522808</v>
+        <v>0.027174004554</v>
       </c>
       <c r="S14">
-        <v>8.064408955041375E-05</v>
+        <v>0.0006158652289798771</v>
       </c>
       <c r="T14">
-        <v>8.064408955041375E-05</v>
+        <v>0.0006158652289798771</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1340,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.028136</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H15">
-        <v>0.08440800000000001</v>
+        <v>1.327958</v>
       </c>
       <c r="I15">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J15">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,60 +1364,60 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.792929999999999</v>
+        <v>0.208416</v>
       </c>
       <c r="N15">
-        <v>17.37879</v>
+        <v>0.625248</v>
       </c>
       <c r="O15">
-        <v>0.9092391618261221</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P15">
-        <v>0.9092391618261221</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q15">
-        <v>0.16298987848</v>
+        <v>0.092255898176</v>
       </c>
       <c r="R15">
-        <v>1.46690890632</v>
+        <v>0.8303030835840001</v>
       </c>
       <c r="S15">
-        <v>0.03521260011150059</v>
+        <v>0.01881779322138544</v>
       </c>
       <c r="T15">
-        <v>0.03521260011150059</v>
+        <v>0.01881779322138544</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.028136</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H16">
-        <v>0.08440800000000001</v>
+        <v>1.327958</v>
       </c>
       <c r="I16">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J16">
-        <v>0.03872754451180849</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5062776666666666</v>
+        <v>0.050388</v>
       </c>
       <c r="N16">
-        <v>1.518833</v>
+        <v>0.151164</v>
       </c>
       <c r="O16">
-        <v>0.07946367059351396</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P16">
-        <v>0.07946367059351396</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q16">
-        <v>0.01424462842933334</v>
+        <v>0.022304382568</v>
       </c>
       <c r="R16">
-        <v>0.128201655864</v>
+        <v>0.200739443112</v>
       </c>
       <c r="S16">
-        <v>0.003077432839981999</v>
+        <v>0.004549511385110402</v>
       </c>
       <c r="T16">
-        <v>0.003077432839981999</v>
+        <v>0.004549511385110402</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,55 +1461,303 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.24628</v>
+      </c>
+      <c r="I17">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J17">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03692766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.110783</v>
+      </c>
+      <c r="O17">
+        <v>0.006058202227135638</v>
+      </c>
+      <c r="P17">
+        <v>0.006058202227135636</v>
+      </c>
+      <c r="Q17">
+        <v>0.003031515248888889</v>
+      </c>
+      <c r="R17">
+        <v>0.02728363724</v>
+      </c>
+      <c r="S17">
+        <v>0.0006183499183134975</v>
+      </c>
+      <c r="T17">
+        <v>0.0006183499183134973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.028136</v>
-      </c>
-      <c r="H17">
-        <v>0.08440800000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.03872754451180849</v>
-      </c>
-      <c r="J17">
-        <v>0.03872754451180849</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.05870933333333334</v>
-      </c>
-      <c r="N17">
-        <v>0.176128</v>
-      </c>
-      <c r="O17">
-        <v>0.009214823074225033</v>
-      </c>
-      <c r="P17">
-        <v>0.009214823074225033</v>
-      </c>
-      <c r="Q17">
-        <v>0.001651845802666667</v>
-      </c>
-      <c r="R17">
-        <v>0.014866612224</v>
-      </c>
-      <c r="S17">
-        <v>0.00035686747077549</v>
-      </c>
-      <c r="T17">
-        <v>0.00035686747077549</v>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.24628</v>
+      </c>
+      <c r="I18">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J18">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N18">
+        <v>17.37879</v>
+      </c>
+      <c r="O18">
+        <v>0.9503644447516544</v>
+      </c>
+      <c r="P18">
+        <v>0.9503644447516543</v>
+      </c>
+      <c r="Q18">
+        <v>0.4755609334666666</v>
+      </c>
+      <c r="R18">
+        <v>4.280048401199999</v>
+      </c>
+      <c r="S18">
+        <v>0.09700200731960161</v>
+      </c>
+      <c r="T18">
+        <v>0.0970020073196016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.24628</v>
+      </c>
+      <c r="I19">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J19">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.006821</v>
+      </c>
+      <c r="N19">
+        <v>0.020463</v>
+      </c>
+      <c r="O19">
+        <v>0.001119025411605359</v>
+      </c>
+      <c r="P19">
+        <v>0.001119025411605359</v>
+      </c>
+      <c r="Q19">
+        <v>0.0005599586266666666</v>
+      </c>
+      <c r="R19">
+        <v>0.00503962764</v>
+      </c>
+      <c r="S19">
+        <v>0.0001142169320062564</v>
+      </c>
+      <c r="T19">
+        <v>0.0001142169320062563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.24628</v>
+      </c>
+      <c r="I20">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J20">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.208416</v>
+      </c>
+      <c r="N20">
+        <v>0.625248</v>
+      </c>
+      <c r="O20">
+        <v>0.03419187805089322</v>
+      </c>
+      <c r="P20">
+        <v>0.03419187805089321</v>
+      </c>
+      <c r="Q20">
+        <v>0.01710956416</v>
+      </c>
+      <c r="R20">
+        <v>0.15398607744</v>
+      </c>
+      <c r="S20">
+        <v>0.003489904134440101</v>
+      </c>
+      <c r="T20">
+        <v>0.0034899041344401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.24628</v>
+      </c>
+      <c r="I21">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="J21">
+        <v>0.1020682200973436</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.050388</v>
+      </c>
+      <c r="N21">
+        <v>0.151164</v>
+      </c>
+      <c r="O21">
+        <v>0.008266449558711458</v>
+      </c>
+      <c r="P21">
+        <v>0.008266449558711456</v>
+      </c>
+      <c r="Q21">
+        <v>0.00413651888</v>
+      </c>
+      <c r="R21">
+        <v>0.03722866992</v>
+      </c>
+      <c r="S21">
+        <v>0.00084374179298215</v>
+      </c>
+      <c r="T21">
+        <v>0.0008437417929821498</v>
       </c>
     </row>
   </sheetData>
